--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2481.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2481.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.256491841196188</v>
+        <v>1.735929846763611</v>
       </c>
       <c r="B1">
-        <v>3.348069852271621</v>
+        <v>1.813096523284912</v>
       </c>
       <c r="C1">
-        <v>4.605843328991577</v>
+        <v>4.938595771789551</v>
       </c>
       <c r="D1">
-        <v>3.634277574537347</v>
+        <v>1.209845066070557</v>
       </c>
       <c r="E1">
-        <v>1.375721608870116</v>
+        <v>0.637754499912262</v>
       </c>
     </row>
   </sheetData>
